--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>136171.061962025</v>
+        <v>133823.0220725976</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5861169.424157195</v>
+        <v>5861169.424157198</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673301</v>
+        <v>603248.493767341</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12872631.47861252</v>
+        <v>12872631.47861251</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>235.6382101471991</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>46.00903718674009</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>162.3364906735235</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>190.2713935802968</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7256890747626</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -953,16 +953,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>19.330028281558</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>76.18953240873151</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>126.7632886126195</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>184.4204837359412</v>
       </c>
       <c r="H8" t="n">
-        <v>161.7513045214305</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>117.3776555795997</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>168.7756050755991</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>136.3803689335083</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2286119169542</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>146.5581238002446</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>102.451279504558</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>98.05094259824706</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>193.3033399882067</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.4154739963984</v>
       </c>
       <c r="U13" t="n">
         <v>286.2229002233179</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>189.4514380680203</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1622,10 +1622,10 @@
         <v>411.3738416199582</v>
       </c>
       <c r="H14" t="n">
-        <v>299.237997029287</v>
+        <v>299.2379970292869</v>
       </c>
       <c r="I14" t="n">
-        <v>59.00713057159956</v>
+        <v>59.00713057159913</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>119.4903543749024</v>
+        <v>119.4903543749021</v>
       </c>
       <c r="T14" t="n">
         <v>205.8971077829946</v>
@@ -1701,10 +1701,10 @@
         <v>135.2413725340129</v>
       </c>
       <c r="H15" t="n">
-        <v>91.93315268608708</v>
+        <v>91.93315268608703</v>
       </c>
       <c r="I15" t="n">
-        <v>17.02016206544161</v>
+        <v>17.02016206544141</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>132.636756609749</v>
+        <v>132.6367566097489</v>
       </c>
       <c r="T15" t="n">
         <v>191.6916106499414</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>105.9609042343837</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>98.05094259824683</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>193.3033399882066</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.4154739963984</v>
       </c>
       <c r="U16" t="n">
         <v>286.2229002233179</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>82.76041991337205</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>299.237997029287</v>
       </c>
       <c r="I17" t="n">
-        <v>59.00713057159962</v>
+        <v>59.00713057159959</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>91.9331526860871</v>
       </c>
       <c r="I18" t="n">
-        <v>17.02016206544164</v>
+        <v>17.02016206544162</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.05094259824708</v>
+        <v>98.05094259824706</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>193.3033399882067</v>
       </c>
       <c r="T19" t="n">
-        <v>220.4154739963984</v>
+        <v>84.59124055767006</v>
       </c>
       <c r="U19" t="n">
         <v>286.2229002233179</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>154.6946140100449</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.05094259824706</v>
       </c>
       <c r="S22" t="n">
-        <v>79.0652668350389</v>
+        <v>193.3033399882067</v>
       </c>
       <c r="T22" t="n">
         <v>220.4154739963984</v>
@@ -2296,16 +2296,16 @@
         <v>286.2229002233179</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>13.57561207398774</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2479,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>32.19588949340087</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.05094259824706</v>
       </c>
       <c r="S25" t="n">
         <v>193.3033399882067</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>89.88542195030895</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>74.75769145492362</v>
       </c>
       <c r="C28" t="n">
-        <v>88.23797643592174</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>88.95727408547441</v>
+        <v>25.53923626892152</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>27.19292662790571</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,10 +3196,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>90.41948680756504</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3360,7 +3360,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
         <v>18.81721868247745</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.9117655187904</v>
+        <v>132.9117655187987</v>
       </c>
       <c r="C37" t="n">
-        <v>120.326606435481</v>
+        <v>120.3266064354892</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6952583550655</v>
+        <v>101.6952583550737</v>
       </c>
       <c r="E37" t="n">
-        <v>99.51374798342232</v>
+        <v>99.51374798343053</v>
       </c>
       <c r="F37" t="n">
-        <v>98.50083335978439</v>
+        <v>98.50083335979261</v>
       </c>
       <c r="G37" t="n">
-        <v>119.1055935958814</v>
+        <v>119.1055935958896</v>
       </c>
       <c r="H37" t="n">
-        <v>96.52541689578374</v>
+        <v>96.52541689559629</v>
       </c>
       <c r="I37" t="n">
-        <v>49.43220574669126</v>
+        <v>49.43220574669946</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.01193800690049</v>
+        <v>42.0119380069087</v>
       </c>
       <c r="S37" t="n">
-        <v>142.848810668295</v>
+        <v>142.8488106683033</v>
       </c>
       <c r="T37" t="n">
-        <v>172.6287346130223</v>
+        <v>172.6287346130306</v>
       </c>
       <c r="U37" t="n">
-        <v>239.291623542466</v>
+        <v>239.2916235424742</v>
       </c>
       <c r="V37" t="n">
-        <v>205.2174286606812</v>
+        <v>205.2174286606894</v>
       </c>
       <c r="W37" t="n">
-        <v>239.6027836734442</v>
+        <v>239.6027836734524</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7894407258903</v>
+        <v>178.7894407258985</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6644386889479</v>
+        <v>171.6644386889562</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797654</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572793</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124556</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3755,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572793</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124556</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.9570160514543</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="44">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1534.318342165211</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C2" t="n">
-        <v>1165.3558252248</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>1165.3558252248</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>779.5675726265554</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>772.6220718773519</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>2311.057514205145</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X2" t="n">
-        <v>2311.057514205145</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y2" t="n">
-        <v>1920.918182229333</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4492,43 +4492,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1271.835978902613</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C5" t="n">
-        <v>902.8734619622016</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D5" t="n">
-        <v>902.8734619622016</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>902.8734619622016</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942547</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2048.575150942547</v>
+        <v>1642.958293036987</v>
       </c>
       <c r="X5" t="n">
-        <v>2048.575150942547</v>
+        <v>1269.492534775907</v>
       </c>
       <c r="Y5" t="n">
-        <v>1658.435818966735</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>484.4236418782191</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>407.4645182330357</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782191</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782191</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782191</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782191</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>484.4236418782191</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>484.4236418782191</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1404.543549400789</v>
+        <v>1559.428949058529</v>
       </c>
       <c r="C8" t="n">
-        <v>1404.543549400789</v>
+        <v>1190.466432118118</v>
       </c>
       <c r="D8" t="n">
-        <v>1046.277850794038</v>
+        <v>1190.466432118118</v>
       </c>
       <c r="E8" t="n">
-        <v>1046.277850794038</v>
+        <v>804.6781795198735</v>
       </c>
       <c r="F8" t="n">
-        <v>635.2919460044307</v>
+        <v>393.692274730266</v>
       </c>
       <c r="G8" t="n">
-        <v>217.3281379026175</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646714</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W8" t="n">
-        <v>1794.6828813766</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X8" t="n">
-        <v>1794.6828813766</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y8" t="n">
-        <v>1404.543549400789</v>
+        <v>1559.428949058529</v>
       </c>
     </row>
     <row r="9">
@@ -4884,10 +4884,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610024</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610024</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610024</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.1627947174723</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5021,25 +5021,25 @@
         <v>2028.711794189358</v>
       </c>
       <c r="D11" t="n">
-        <v>1670.446095582607</v>
+        <v>1670.446095582608</v>
       </c>
       <c r="E11" t="n">
         <v>1284.657842984363</v>
       </c>
       <c r="F11" t="n">
-        <v>873.6719381947553</v>
+        <v>873.6719381947555</v>
       </c>
       <c r="G11" t="n">
-        <v>458.1428052453025</v>
+        <v>458.142805245303</v>
       </c>
       <c r="H11" t="n">
         <v>155.8822021854166</v>
       </c>
       <c r="I11" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J11" t="n">
-        <v>414.5747702342505</v>
+        <v>414.5747702342506</v>
       </c>
       <c r="K11" t="n">
         <v>691.4584060135637</v>
@@ -5048,28 +5048,28 @@
         <v>1485.343404186565</v>
       </c>
       <c r="M11" t="n">
-        <v>2385.299975389905</v>
+        <v>2019.480994106884</v>
       </c>
       <c r="N11" t="n">
-        <v>3285.18678724513</v>
+        <v>2919.367805962109</v>
       </c>
       <c r="O11" t="n">
-        <v>4089.736748063675</v>
+        <v>3723.917766780654</v>
       </c>
       <c r="P11" t="n">
-        <v>4518.040746589598</v>
+        <v>4372.908161510545</v>
       </c>
       <c r="Q11" t="n">
-        <v>4717.991904648171</v>
+        <v>4783.051160322424</v>
       </c>
       <c r="R11" t="n">
-        <v>4813.951999594083</v>
+        <v>4813.951999594084</v>
       </c>
       <c r="S11" t="n">
         <v>4693.254671942666</v>
       </c>
       <c r="T11" t="n">
-        <v>4485.277795394187</v>
+        <v>4485.277795394188</v>
       </c>
       <c r="U11" t="n">
         <v>4231.710784044468</v>
@@ -5115,28 +5115,28 @@
         <v>113.4711228862671</v>
       </c>
       <c r="I12" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J12" t="n">
-        <v>292.1604166971855</v>
+        <v>167.3302917101807</v>
       </c>
       <c r="K12" t="n">
-        <v>534.6729529971346</v>
+        <v>366.9230224985479</v>
       </c>
       <c r="L12" t="n">
-        <v>849.3725519700936</v>
+        <v>681.6226214715068</v>
       </c>
       <c r="M12" t="n">
-        <v>1235.969008722662</v>
+        <v>1068.219078224075</v>
       </c>
       <c r="N12" t="n">
-        <v>1647.206168247559</v>
+        <v>1479.456237748972</v>
       </c>
       <c r="O12" t="n">
-        <v>2001.188032313729</v>
+        <v>1833.438101815143</v>
       </c>
       <c r="P12" t="n">
-        <v>2265.956619575952</v>
+        <v>2413.484830030903</v>
       </c>
       <c r="Q12" t="n">
         <v>2601.004726840545</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>813.7411115944458</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="C13" t="n">
-        <v>813.7411115944458</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="D13" t="n">
-        <v>663.62447218211</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="E13" t="n">
-        <v>515.7113785997169</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="F13" t="n">
-        <v>515.7113785997168</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="G13" t="n">
-        <v>347.8036897947126</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="H13" t="n">
-        <v>199.7651809055766</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="I13" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J13" t="n">
         <v>127.2068360096031</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8675422238314</v>
+        <v>307.8675422238315</v>
       </c>
       <c r="L13" t="n">
         <v>594.5774814768321</v>
@@ -5215,34 +5215,34 @@
         <v>1488.897144214383</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.221745862615</v>
+        <v>1697.221745862616</v>
       </c>
       <c r="Q13" t="n">
         <v>1758.019821576723</v>
       </c>
       <c r="R13" t="n">
-        <v>1758.019821576723</v>
+        <v>1658.978465416878</v>
       </c>
       <c r="S13" t="n">
-        <v>1758.019821576723</v>
+        <v>1463.722566438891</v>
       </c>
       <c r="T13" t="n">
-        <v>1758.019821576723</v>
+        <v>1241.080673513236</v>
       </c>
       <c r="U13" t="n">
-        <v>1468.905780947109</v>
+        <v>951.9666328836219</v>
       </c>
       <c r="V13" t="n">
-        <v>1468.905780947109</v>
+        <v>697.282144677735</v>
       </c>
       <c r="W13" t="n">
-        <v>1179.488610910148</v>
+        <v>505.9170557201388</v>
       </c>
       <c r="X13" t="n">
-        <v>951.4990600121309</v>
+        <v>277.9275048221214</v>
       </c>
       <c r="Y13" t="n">
-        <v>951.4990600121309</v>
+        <v>277.9275048221214</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2397.674311129768</v>
+        <v>2397.674311129769</v>
       </c>
       <c r="C14" t="n">
-        <v>2028.711794189357</v>
+        <v>2028.711794189358</v>
       </c>
       <c r="D14" t="n">
-        <v>1670.446095582607</v>
+        <v>1670.446095582608</v>
       </c>
       <c r="E14" t="n">
         <v>1284.657842984363</v>
       </c>
       <c r="F14" t="n">
-        <v>873.6719381947552</v>
+        <v>873.6719381947555</v>
       </c>
       <c r="G14" t="n">
-        <v>458.1428052453024</v>
+        <v>458.1428052453033</v>
       </c>
       <c r="H14" t="n">
-        <v>155.8822021854166</v>
+        <v>155.8822021854162</v>
       </c>
       <c r="I14" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J14" t="n">
-        <v>247.1691212138975</v>
+        <v>414.5747702342516</v>
       </c>
       <c r="K14" t="n">
-        <v>535.8312654838477</v>
+        <v>705.5985672141823</v>
       </c>
       <c r="L14" t="n">
-        <v>1329.716263656849</v>
+        <v>1499.483565387186</v>
       </c>
       <c r="M14" t="n">
-        <v>2229.672834860189</v>
+        <v>1954.421738432623</v>
       </c>
       <c r="N14" t="n">
-        <v>3129.559646715414</v>
+        <v>2854.30855028785</v>
       </c>
       <c r="O14" t="n">
-        <v>3934.109607533959</v>
+        <v>3658.858511106398</v>
       </c>
       <c r="P14" t="n">
-        <v>4583.10000226385</v>
+        <v>4307.84890583629</v>
       </c>
       <c r="Q14" t="n">
-        <v>4783.051160322423</v>
+        <v>4717.991904648171</v>
       </c>
       <c r="R14" t="n">
-        <v>4813.951999594083</v>
+        <v>4813.951999594084</v>
       </c>
       <c r="S14" t="n">
         <v>4693.254671942666</v>
       </c>
       <c r="T14" t="n">
-        <v>4485.277795394187</v>
+        <v>4485.277795394188</v>
       </c>
       <c r="U14" t="n">
-        <v>4231.710784044467</v>
+        <v>4231.710784044468</v>
       </c>
       <c r="V14" t="n">
-        <v>3900.647896700896</v>
+        <v>3900.647896700897</v>
       </c>
       <c r="W14" t="n">
-        <v>3547.879241430782</v>
+        <v>3547.879241430783</v>
       </c>
       <c r="X14" t="n">
-        <v>3174.413483169702</v>
+        <v>3174.413483169703</v>
       </c>
       <c r="Y14" t="n">
-        <v>2784.27415119389</v>
+        <v>2784.274151193891</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5331,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>972.0997922012563</v>
+        <v>972.099792201256</v>
       </c>
       <c r="C15" t="n">
-        <v>797.6467629201293</v>
+        <v>797.646762920129</v>
       </c>
       <c r="D15" t="n">
-        <v>648.712353258878</v>
+        <v>648.7123532588778</v>
       </c>
       <c r="E15" t="n">
-        <v>489.4748982534226</v>
+        <v>489.4748982534223</v>
       </c>
       <c r="F15" t="n">
-        <v>342.9403402803075</v>
+        <v>342.9403402803073</v>
       </c>
       <c r="G15" t="n">
-        <v>206.3328932762541</v>
+        <v>206.3328932762539</v>
       </c>
       <c r="H15" t="n">
-        <v>113.4711228862671</v>
+        <v>113.4711228862669</v>
       </c>
       <c r="I15" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J15" t="n">
-        <v>167.3302917101807</v>
+        <v>167.3302917101813</v>
       </c>
       <c r="K15" t="n">
-        <v>366.9230224985479</v>
+        <v>628.7436071410023</v>
       </c>
       <c r="L15" t="n">
-        <v>681.6226214715068</v>
+        <v>943.4432061139626</v>
       </c>
       <c r="M15" t="n">
-        <v>1068.219078224075</v>
+        <v>1330.039662866533</v>
       </c>
       <c r="N15" t="n">
-        <v>1479.456237748972</v>
+        <v>1825.126746911841</v>
       </c>
       <c r="O15" t="n">
-        <v>2209.164547172219</v>
+        <v>2179.108610978012</v>
       </c>
       <c r="P15" t="n">
-        <v>2473.933134434442</v>
+        <v>2443.877198240236</v>
       </c>
       <c r="Q15" t="n">
-        <v>2601.004726840545</v>
+        <v>2570.948790646339</v>
       </c>
       <c r="R15" t="n">
         <v>2601.004726840545</v>
@@ -5391,7 +5391,7 @@
         <v>2045.316393151755</v>
       </c>
       <c r="V15" t="n">
-        <v>1810.164284920013</v>
+        <v>1810.164284920012</v>
       </c>
       <c r="W15" t="n">
         <v>1555.926928191811</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>522.3630787304917</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="C16" t="n">
-        <v>353.4268958025848</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="D16" t="n">
-        <v>203.3102563902491</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="E16" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="F16" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="G16" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="H16" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="I16" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J16" t="n">
-        <v>127.206836009603</v>
+        <v>127.2068360096034</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8675422238315</v>
+        <v>307.8675422238325</v>
       </c>
       <c r="L16" t="n">
-        <v>594.5774814768322</v>
+        <v>594.5774814768338</v>
       </c>
       <c r="M16" t="n">
-        <v>907.2620358138198</v>
+        <v>907.2620358138222</v>
       </c>
       <c r="N16" t="n">
-        <v>1217.94626675487</v>
+        <v>1217.946266754873</v>
       </c>
       <c r="O16" t="n">
-        <v>1488.897144214383</v>
+        <v>1488.897144214387</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.221745862616</v>
+        <v>1697.22174586262</v>
       </c>
       <c r="Q16" t="n">
-        <v>1758.019821576723</v>
+        <v>1758.019821576728</v>
       </c>
       <c r="R16" t="n">
-        <v>1758.019821576723</v>
+        <v>1658.978465416883</v>
       </c>
       <c r="S16" t="n">
-        <v>1758.019821576723</v>
+        <v>1463.722566438896</v>
       </c>
       <c r="T16" t="n">
-        <v>1758.019821576723</v>
+        <v>1241.080673513241</v>
       </c>
       <c r="U16" t="n">
-        <v>1468.905780947109</v>
+        <v>951.9666328836274</v>
       </c>
       <c r="V16" t="n">
-        <v>1214.221292741222</v>
+        <v>697.2821446777405</v>
       </c>
       <c r="W16" t="n">
-        <v>924.8041227042615</v>
+        <v>407.8649746407799</v>
       </c>
       <c r="X16" t="n">
-        <v>924.8041227042615</v>
+        <v>179.8754237427625</v>
       </c>
       <c r="Y16" t="n">
-        <v>704.0115435607314</v>
+        <v>96.27903999188167</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2397.674311129767</v>
+        <v>2397.674311129769</v>
       </c>
       <c r="C17" t="n">
-        <v>2028.711794189356</v>
+        <v>2028.711794189358</v>
       </c>
       <c r="D17" t="n">
-        <v>1670.446095582606</v>
+        <v>1670.446095582608</v>
       </c>
       <c r="E17" t="n">
-        <v>1284.657842984362</v>
+        <v>1284.657842984363</v>
       </c>
       <c r="F17" t="n">
-        <v>873.6719381947541</v>
+        <v>873.671938194756</v>
       </c>
       <c r="G17" t="n">
-        <v>458.142805245302</v>
+        <v>458.1428052453025</v>
       </c>
       <c r="H17" t="n">
-        <v>155.8822021854167</v>
+        <v>155.8822021854166</v>
       </c>
       <c r="I17" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J17" t="n">
-        <v>414.5747702342505</v>
+        <v>414.5747702342506</v>
       </c>
       <c r="K17" t="n">
         <v>1012.362364459017</v>
       </c>
       <c r="L17" t="n">
-        <v>1806.247362632018</v>
+        <v>1392.762760227072</v>
       </c>
       <c r="M17" t="n">
-        <v>2387.395193600496</v>
+        <v>2292.719331430412</v>
       </c>
       <c r="N17" t="n">
-        <v>2854.308550287856</v>
+        <v>3192.606143285637</v>
       </c>
       <c r="O17" t="n">
-        <v>3658.858511106401</v>
+        <v>3658.858511106402</v>
       </c>
       <c r="P17" t="n">
-        <v>4307.848905836292</v>
+        <v>4307.848905836293</v>
       </c>
       <c r="Q17" t="n">
-        <v>4717.991904648171</v>
+        <v>4717.991904648172</v>
       </c>
       <c r="R17" t="n">
-        <v>4813.951999594083</v>
+        <v>4813.951999594084</v>
       </c>
       <c r="S17" t="n">
-        <v>4693.254671942665</v>
+        <v>4693.254671942667</v>
       </c>
       <c r="T17" t="n">
-        <v>4485.277795394186</v>
+        <v>4485.277795394188</v>
       </c>
       <c r="U17" t="n">
-        <v>4231.710784044466</v>
+        <v>4231.710784044468</v>
       </c>
       <c r="V17" t="n">
-        <v>3900.647896700895</v>
+        <v>3900.647896700897</v>
       </c>
       <c r="W17" t="n">
-        <v>3547.879241430781</v>
+        <v>3547.879241430783</v>
       </c>
       <c r="X17" t="n">
-        <v>3174.413483169701</v>
+        <v>3174.413483169703</v>
       </c>
       <c r="Y17" t="n">
-        <v>2784.274151193889</v>
+        <v>2784.274151193891</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>113.4711228862672</v>
       </c>
       <c r="I18" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J18" t="n">
-        <v>292.1604166971854</v>
+        <v>167.3302917101807</v>
       </c>
       <c r="K18" t="n">
-        <v>491.7531474855524</v>
+        <v>366.9230224985478</v>
       </c>
       <c r="L18" t="n">
-        <v>806.4527464585112</v>
+        <v>681.6226214715067</v>
       </c>
       <c r="M18" t="n">
-        <v>1193.04920321108</v>
+        <v>1068.219078224075</v>
       </c>
       <c r="N18" t="n">
-        <v>1604.286362735977</v>
+        <v>1479.456237748972</v>
       </c>
       <c r="O18" t="n">
-        <v>1958.268226802147</v>
+        <v>2209.16454717222</v>
       </c>
       <c r="P18" t="n">
-        <v>2265.956619575953</v>
+        <v>2473.933134434443</v>
       </c>
       <c r="Q18" t="n">
         <v>2601.004726840546</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.2152229197886</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="C19" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="D19" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="E19" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="F19" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="G19" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="H19" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="I19" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J19" t="n">
-        <v>127.206836009603</v>
+        <v>127.2068360096031</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8675422238314</v>
+        <v>307.8675422238315</v>
       </c>
       <c r="L19" t="n">
-        <v>594.577481476832</v>
+        <v>594.5774814768321</v>
       </c>
       <c r="M19" t="n">
-        <v>907.2620358138195</v>
+        <v>907.2620358138197</v>
       </c>
       <c r="N19" t="n">
         <v>1217.94626675487</v>
@@ -5698,25 +5698,25 @@
         <v>1658.978465416877</v>
       </c>
       <c r="S19" t="n">
-        <v>1658.978465416877</v>
+        <v>1463.722566438891</v>
       </c>
       <c r="T19" t="n">
-        <v>1436.336572491222</v>
+        <v>1378.276868905891</v>
       </c>
       <c r="U19" t="n">
-        <v>1147.222531861608</v>
+        <v>1089.162828276277</v>
       </c>
       <c r="V19" t="n">
-        <v>892.5380436557215</v>
+        <v>834.4783400703897</v>
       </c>
       <c r="W19" t="n">
-        <v>603.1208736187605</v>
+        <v>545.0611700334291</v>
       </c>
       <c r="X19" t="n">
-        <v>603.1208736187605</v>
+        <v>317.0716191354118</v>
       </c>
       <c r="Y19" t="n">
-        <v>446.8636877500282</v>
+        <v>96.27903999188167</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2397.674311129768</v>
+        <v>2397.674311129767</v>
       </c>
       <c r="C20" t="n">
-        <v>2028.711794189357</v>
+        <v>2028.711794189356</v>
       </c>
       <c r="D20" t="n">
-        <v>1670.446095582607</v>
+        <v>1670.446095582606</v>
       </c>
       <c r="E20" t="n">
-        <v>1284.657842984363</v>
+        <v>1284.657842984362</v>
       </c>
       <c r="F20" t="n">
-        <v>873.6719381947552</v>
+        <v>873.6719381947541</v>
       </c>
       <c r="G20" t="n">
-        <v>458.1428052453024</v>
+        <v>458.142805245302</v>
       </c>
       <c r="H20" t="n">
         <v>155.8822021854166</v>
       </c>
       <c r="I20" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J20" t="n">
-        <v>414.5747702342505</v>
+        <v>414.5747702342506</v>
       </c>
       <c r="K20" t="n">
         <v>1012.362364459017</v>
@@ -5762,40 +5762,40 @@
         <v>2261.185535677454</v>
       </c>
       <c r="N20" t="n">
-        <v>2854.308550287856</v>
+        <v>2919.367805962109</v>
       </c>
       <c r="O20" t="n">
-        <v>3658.858511106401</v>
+        <v>3723.917766780654</v>
       </c>
       <c r="P20" t="n">
-        <v>4307.848905836292</v>
+        <v>4372.908161510545</v>
       </c>
       <c r="Q20" t="n">
-        <v>4717.991904648171</v>
+        <v>4783.051160322424</v>
       </c>
       <c r="R20" t="n">
-        <v>4813.951999594083</v>
+        <v>4813.951999594084</v>
       </c>
       <c r="S20" t="n">
-        <v>4693.254671942666</v>
+        <v>4693.254671942665</v>
       </c>
       <c r="T20" t="n">
-        <v>4485.277795394187</v>
+        <v>4485.277795394186</v>
       </c>
       <c r="U20" t="n">
-        <v>4231.710784044467</v>
+        <v>4231.710784044466</v>
       </c>
       <c r="V20" t="n">
-        <v>3900.647896700896</v>
+        <v>3900.647896700895</v>
       </c>
       <c r="W20" t="n">
-        <v>3547.879241430782</v>
+        <v>3547.879241430781</v>
       </c>
       <c r="X20" t="n">
-        <v>3174.413483169702</v>
+        <v>3174.413483169701</v>
       </c>
       <c r="Y20" t="n">
-        <v>2784.27415119389</v>
+        <v>2784.274151193889</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>113.4711228862671</v>
       </c>
       <c r="I21" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J21" t="n">
-        <v>292.1604166971855</v>
+        <v>167.3302917101807</v>
       </c>
       <c r="K21" t="n">
-        <v>534.6729529971346</v>
+        <v>628.7436071410007</v>
       </c>
       <c r="L21" t="n">
-        <v>849.3725519700936</v>
+        <v>943.4432061139596</v>
       </c>
       <c r="M21" t="n">
-        <v>1235.969008722662</v>
+        <v>1330.039662866528</v>
       </c>
       <c r="N21" t="n">
-        <v>1647.206168247559</v>
+        <v>1741.276822391425</v>
       </c>
       <c r="O21" t="n">
-        <v>2001.188032313729</v>
+        <v>2209.164547172219</v>
       </c>
       <c r="P21" t="n">
-        <v>2265.956619575952</v>
+        <v>2473.933134434442</v>
       </c>
       <c r="Q21" t="n">
         <v>2601.004726840545</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>394.3087729866105</v>
+        <v>246.3956794042174</v>
       </c>
       <c r="C22" t="n">
-        <v>394.3087729866105</v>
+        <v>246.3956794042174</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1921335742748</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="E22" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="F22" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="G22" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="H22" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="I22" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J22" t="n">
         <v>127.2068360096031</v>
@@ -5914,10 +5914,10 @@
         <v>307.8675422238315</v>
       </c>
       <c r="L22" t="n">
-        <v>594.5774814768322</v>
+        <v>594.5774814768323</v>
       </c>
       <c r="M22" t="n">
-        <v>907.2620358138197</v>
+        <v>907.2620358138199</v>
       </c>
       <c r="N22" t="n">
         <v>1217.94626675487</v>
@@ -5926,34 +5926,34 @@
         <v>1488.897144214383</v>
       </c>
       <c r="P22" t="n">
-        <v>1697.221745862615</v>
+        <v>1697.221745862616</v>
       </c>
       <c r="Q22" t="n">
         <v>1758.019821576723</v>
       </c>
       <c r="R22" t="n">
-        <v>1758.019821576723</v>
+        <v>1658.978465416878</v>
       </c>
       <c r="S22" t="n">
-        <v>1678.155915682744</v>
+        <v>1463.722566438891</v>
       </c>
       <c r="T22" t="n">
-        <v>1455.514022757089</v>
+        <v>1241.080673513236</v>
       </c>
       <c r="U22" t="n">
-        <v>1166.399982127475</v>
+        <v>951.9666328836224</v>
       </c>
       <c r="V22" t="n">
-        <v>911.7154939215884</v>
+        <v>951.9666328836224</v>
       </c>
       <c r="W22" t="n">
-        <v>622.2983238846278</v>
+        <v>662.5494628466618</v>
       </c>
       <c r="X22" t="n">
-        <v>394.3087729866105</v>
+        <v>648.8367233779873</v>
       </c>
       <c r="Y22" t="n">
-        <v>394.3087729866105</v>
+        <v>428.0441442344571</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2397.674311129769</v>
+        <v>2397.674311129767</v>
       </c>
       <c r="C23" t="n">
-        <v>2028.711794189358</v>
+        <v>2028.711794189356</v>
       </c>
       <c r="D23" t="n">
-        <v>1670.446095582607</v>
+        <v>1670.446095582606</v>
       </c>
       <c r="E23" t="n">
-        <v>1284.657842984363</v>
+        <v>1284.657842984362</v>
       </c>
       <c r="F23" t="n">
-        <v>873.6719381947553</v>
+        <v>873.6719381947541</v>
       </c>
       <c r="G23" t="n">
-        <v>458.1428052453025</v>
+        <v>458.142805245302</v>
       </c>
       <c r="H23" t="n">
         <v>155.8822021854166</v>
       </c>
       <c r="I23" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J23" t="n">
-        <v>414.5747702342505</v>
+        <v>414.5747702342506</v>
       </c>
       <c r="K23" t="n">
         <v>1012.362364459017</v>
       </c>
       <c r="L23" t="n">
-        <v>1806.247362632018</v>
+        <v>1392.762760227072</v>
       </c>
       <c r="M23" t="n">
-        <v>2387.395193600496</v>
+        <v>2292.719331430412</v>
       </c>
       <c r="N23" t="n">
-        <v>2854.308550287857</v>
+        <v>2919.367805962109</v>
       </c>
       <c r="O23" t="n">
-        <v>3658.858511106402</v>
+        <v>3723.917766780654</v>
       </c>
       <c r="P23" t="n">
-        <v>4307.848905836293</v>
+        <v>4372.908161510545</v>
       </c>
       <c r="Q23" t="n">
-        <v>4717.991904648172</v>
+        <v>4783.051160322424</v>
       </c>
       <c r="R23" t="n">
         <v>4813.951999594084</v>
       </c>
       <c r="S23" t="n">
-        <v>4693.254671942667</v>
+        <v>4693.254671942665</v>
       </c>
       <c r="T23" t="n">
-        <v>4485.277795394188</v>
+        <v>4485.277795394186</v>
       </c>
       <c r="U23" t="n">
-        <v>4231.710784044468</v>
+        <v>4231.710784044466</v>
       </c>
       <c r="V23" t="n">
-        <v>3900.647896700897</v>
+        <v>3900.647896700895</v>
       </c>
       <c r="W23" t="n">
-        <v>3547.879241430783</v>
+        <v>3547.879241430781</v>
       </c>
       <c r="X23" t="n">
-        <v>3174.413483169703</v>
+        <v>3174.413483169701</v>
       </c>
       <c r="Y23" t="n">
-        <v>2784.274151193891</v>
+        <v>2784.274151193889</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>113.4711228862671</v>
       </c>
       <c r="I24" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J24" t="n">
-        <v>292.1604166971855</v>
+        <v>167.3302917101807</v>
       </c>
       <c r="K24" t="n">
-        <v>534.6729529971346</v>
+        <v>366.9230224985479</v>
       </c>
       <c r="L24" t="n">
-        <v>849.3725519700936</v>
+        <v>681.6226214715068</v>
       </c>
       <c r="M24" t="n">
-        <v>1235.969008722662</v>
+        <v>1068.219078224075</v>
       </c>
       <c r="N24" t="n">
-        <v>1647.206168247559</v>
+        <v>1825.126746911844</v>
       </c>
       <c r="O24" t="n">
-        <v>2001.188032313729</v>
+        <v>2179.108610978014</v>
       </c>
       <c r="P24" t="n">
-        <v>2265.956619575952</v>
+        <v>2443.877198240237</v>
       </c>
       <c r="Q24" t="n">
-        <v>2601.004726840545</v>
+        <v>2570.94879064634</v>
       </c>
       <c r="R24" t="n">
         <v>2601.004726840545</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>278.9167799026021</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="C25" t="n">
-        <v>278.9167799026021</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="D25" t="n">
-        <v>128.8001404902664</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="E25" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="F25" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="G25" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="H25" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="I25" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J25" t="n">
-        <v>127.2068360096031</v>
+        <v>127.206836009603</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8675422238315</v>
+        <v>307.8675422238314</v>
       </c>
       <c r="L25" t="n">
-        <v>594.5774814768322</v>
+        <v>594.5774814768321</v>
       </c>
       <c r="M25" t="n">
-        <v>907.2620358138199</v>
+        <v>907.2620358138197</v>
       </c>
       <c r="N25" t="n">
         <v>1217.94626675487</v>
@@ -6163,34 +6163,34 @@
         <v>1488.897144214383</v>
       </c>
       <c r="P25" t="n">
-        <v>1697.221745862616</v>
+        <v>1697.221745862615</v>
       </c>
       <c r="Q25" t="n">
         <v>1758.019821576723</v>
       </c>
       <c r="R25" t="n">
-        <v>1758.019821576723</v>
+        <v>1658.978465416877</v>
       </c>
       <c r="S25" t="n">
-        <v>1562.763922598737</v>
+        <v>1463.722566438891</v>
       </c>
       <c r="T25" t="n">
-        <v>1340.122029673082</v>
+        <v>1241.080673513236</v>
       </c>
       <c r="U25" t="n">
-        <v>1051.007989043467</v>
+        <v>951.9666328836216</v>
       </c>
       <c r="V25" t="n">
-        <v>796.32350083758</v>
+        <v>697.2821446777348</v>
       </c>
       <c r="W25" t="n">
-        <v>506.9063308006195</v>
+        <v>407.8649746407741</v>
       </c>
       <c r="X25" t="n">
-        <v>278.9167799026021</v>
+        <v>317.0716191354118</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.9167799026021</v>
+        <v>96.27903999188167</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
@@ -6227,19 +6227,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>750.1800661608922</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1614.698881814247</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M26" t="n">
-        <v>2593.249184644075</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N26" t="n">
-        <v>3573.001456870722</v>
+        <v>3348.500285847604</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750059</v>
+        <v>3851.472756726941</v>
       </c>
       <c r="P26" t="n">
         <v>4470.748294107237</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
         <v>794.200663232024</v>
@@ -6324,19 +6324,19 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>481.6968904858343</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>392.5676213586405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839442</v>
@@ -6382,13 +6382,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208122</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838516</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858343</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y28" t="n">
-        <v>481.6968904858343</v>
+        <v>171.0738540998324</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>323.5285488293692</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>657.3479225192157</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807095</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
         <v>794.200663232024</v>
@@ -6561,19 +6561,19 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>506.8067350374724</v>
+        <v>412.4103109586944</v>
       </c>
       <c r="C31" t="n">
-        <v>506.8067350374724</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D31" t="n">
-        <v>506.8067350374724</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E31" t="n">
-        <v>506.8067350374724</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374724</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6622,10 +6622,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6634,7 +6634,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208122</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>999.1036114208122</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X31" t="n">
-        <v>909.2477790112422</v>
+        <v>594.0587757889341</v>
       </c>
       <c r="Y31" t="n">
-        <v>688.4551998677121</v>
+        <v>594.0587757889341</v>
       </c>
     </row>
     <row r="32">
@@ -6692,25 +6692,25 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232732</v>
@@ -6768,22 +6768,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>481.6968904858343</v>
+        <v>270.9417306852379</v>
       </c>
       <c r="C34" t="n">
-        <v>481.6968904858343</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D34" t="n">
-        <v>481.6968904858343</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E34" t="n">
-        <v>333.7837969034412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>186.8938494055308</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6856,10 +6856,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6883,25 +6883,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208123</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838516</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858343</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y34" t="n">
-        <v>481.6968904858343</v>
+        <v>452.5901955154776</v>
       </c>
     </row>
     <row r="35">
@@ -6935,25 +6935,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483405</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542187</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E36" t="n">
         <v>487.9678785494859</v>
@@ -7014,22 +7014,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
         <v>2436.460902902953</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>787.5808954303232</v>
+        <v>787.580895430184</v>
       </c>
       <c r="C37" t="n">
-        <v>666.0388687278171</v>
+        <v>666.0388687276696</v>
       </c>
       <c r="D37" t="n">
-        <v>563.3163855408823</v>
+        <v>563.3163855407265</v>
       </c>
       <c r="E37" t="n">
-        <v>462.79744818389</v>
+        <v>462.7974481837257</v>
       </c>
       <c r="F37" t="n">
-        <v>363.3016569113805</v>
+        <v>363.3016569112079</v>
       </c>
       <c r="G37" t="n">
-        <v>242.9929765115003</v>
+        <v>242.9929765113195</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4925554046482</v>
+        <v>145.4925554046565</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>187.1346794118454</v>
+        <v>187.1346794118372</v>
       </c>
       <c r="K37" t="n">
-        <v>437.572874877237</v>
+        <v>437.5728748772208</v>
       </c>
       <c r="L37" t="n">
-        <v>800.5836858422485</v>
+        <v>800.5836858422242</v>
       </c>
       <c r="M37" t="n">
-        <v>1191.191743958313</v>
+        <v>1191.191743958281</v>
       </c>
       <c r="N37" t="n">
-        <v>1579.051133180693</v>
+        <v>1579.051133180652</v>
       </c>
       <c r="O37" t="n">
-        <v>1924.831744617622</v>
+        <v>1924.831744617573</v>
       </c>
       <c r="P37" t="n">
-        <v>2203.890257567796</v>
+        <v>2203.89025756774</v>
       </c>
       <c r="Q37" t="n">
-        <v>2327.951566236826</v>
+        <v>2327.951566236762</v>
       </c>
       <c r="R37" t="n">
-        <v>2285.515265219755</v>
+        <v>2285.515265219682</v>
       </c>
       <c r="S37" t="n">
-        <v>2141.223537271982</v>
+        <v>2141.223537271901</v>
       </c>
       <c r="T37" t="n">
-        <v>1966.851078066909</v>
+        <v>1966.85107806682</v>
       </c>
       <c r="U37" t="n">
-        <v>1725.142367417953</v>
+        <v>1725.142367417856</v>
       </c>
       <c r="V37" t="n">
-        <v>1517.852035437468</v>
+        <v>1517.852035437362</v>
       </c>
       <c r="W37" t="n">
-        <v>1275.829021625908</v>
+        <v>1275.829021625794</v>
       </c>
       <c r="X37" t="n">
-        <v>1095.233626953291</v>
+        <v>1095.233626953169</v>
       </c>
       <c r="Y37" t="n">
-        <v>921.8352040351622</v>
+        <v>921.8352040350312</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7175,25 +7175,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>913.1101661838568</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1364.144379432265</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M38" t="n">
-        <v>1897.67628410419</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N38" t="n">
-        <v>2877.428556330836</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O38" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7242,7 +7242,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7251,13 +7251,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932522</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160443</v>
       </c>
       <c r="H40" t="n">
         <v>145.4370786819758</v>
@@ -7333,7 +7333,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
         <v>800.7468040499223</v>
@@ -7369,13 +7369,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,22 +7409,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483405</v>
+        <v>1941.005908766398</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542187</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P41" t="n">
         <v>4195.497197679678</v>
@@ -7436,25 +7436,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7479,7 +7479,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,13 +7488,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7549,10 +7549,10 @@
         <v>667.028617841672</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774095</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430897</v>
       </c>
       <c r="F43" t="n">
         <v>364.4578361932525</v>
@@ -7570,7 +7570,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
         <v>800.7468040499223</v>
@@ -7588,7 +7588,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036721</v>
       </c>
     </row>
     <row r="44">
@@ -7649,22 +7649,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q44" t="n">
         <v>4653.975400188666</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C46" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
@@ -7831,7 +7831,7 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711643</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8696,7 +8696,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>79.99941098473039</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8705,13 +8705,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>98.88315645030235</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>43.35333890058789</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>61.05889333690845</v>
       </c>
       <c r="R12" t="n">
         <v>15.16213830202247</v>
@@ -8924,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>11.89748332387586</v>
+        <v>14.28299111173351</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8945,10 +8945,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,10 +9015,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>84.69689345495919</v>
       </c>
       <c r="O15" t="n">
-        <v>379.5216619768456</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>15.16213830202247</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,16 +9167,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>127.4845029525679</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>39.0854408609477</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>379.5216619768468</v>
       </c>
       <c r="P18" t="n">
-        <v>43.35333890058939</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>15.1621383020225</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>127.4845029525667</v>
+        <v>193.2009228255498</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>43.35333890058789</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,13 +9492,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>115.056424964267</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>15.16213830202247</v>
@@ -9641,13 +9641,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>127.4845029525678</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>161.3486038831682</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>43.35333890058789</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>349.1621304675469</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>15.16213830202247</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,10 +9875,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>133.2530576400263</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>226.7688596193111</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>39.48321557772658</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,22 +10118,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10358,10 +10358,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>76.45227440777376</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476853</v>
+        <v>195.2514630883926</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>297.8289162490814</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10835,16 +10835,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>76.45227440777376</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,22 +11060,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>172.4995987156013</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11297,25 +11297,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>13.9882388354705</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.45161124842903</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.2286119169542</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>146.5581238002446</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>102.451279504558</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>98.05094259824706</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>193.3033399882067</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.4154739963984</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>97.07156026857075</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>40.47305841218545</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>146.5581238002446</v>
       </c>
       <c r="I16" t="n">
-        <v>102.451279504558</v>
+        <v>102.4512795045579</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>98.05094259824706</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>193.3033399882067</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.4154739963984</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>135.8242334387227</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23905,7 +23905,7 @@
         <v>166.2286119169542</v>
       </c>
       <c r="H19" t="n">
-        <v>146.5581238002452</v>
+        <v>146.5581238002446</v>
       </c>
       <c r="I19" t="n">
         <v>102.451279504558</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>193.3033399882067</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>135.8242334387284</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>63.8900393420499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.05094259824706</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>114.2380731531678</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>212.1340433150494</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,10 +24367,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>114.2380731531683</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.05094259824706</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>135.8242334387282</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270137</v>
       </c>
       <c r="C28" t="n">
-        <v>79.0088446627061</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>136.7523813035627</v>
+        <v>200.1704191201156</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>140.0538944707221</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,10 +25084,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>75.60632145146319</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25123,7 +25123,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.309383355390197</v>
+        <v>1.309383355585844</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>3.268496584496461e-13</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>3.268496584496461e-13</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.902744876744691e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1089476.402984365</v>
+        <v>1089476.402984364</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1125719.543685578</v>
+        <v>1125719.543685572</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="C2" t="n">
         <v>328416.7079457132</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="E2" t="n">
-        <v>315566.0372228772</v>
+        <v>315566.0372228771</v>
       </c>
       <c r="F2" t="n">
-        <v>315566.0372228771</v>
+        <v>315566.0372228773</v>
       </c>
       <c r="G2" t="n">
         <v>315566.0372228771</v>
       </c>
       <c r="H2" t="n">
-        <v>315566.0372228771</v>
+        <v>315566.037222877</v>
       </c>
       <c r="I2" t="n">
-        <v>315566.0372228771</v>
+        <v>315566.037222877</v>
       </c>
       <c r="J2" t="n">
-        <v>317665.4295095864</v>
+        <v>317665.4295095865</v>
       </c>
       <c r="K2" t="n">
-        <v>317665.4295095864</v>
+        <v>317665.4295095865</v>
       </c>
       <c r="L2" t="n">
         <v>317665.4295095865</v>
       </c>
       <c r="M2" t="n">
-        <v>328404.1378655017</v>
+        <v>328404.1378654997</v>
       </c>
       <c r="N2" t="n">
-        <v>328416.7079457137</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="O2" t="n">
+        <v>328416.7079457136</v>
+      </c>
+      <c r="P2" t="n">
         <v>328416.7079457135</v>
-      </c>
-      <c r="P2" t="n">
-        <v>328416.7079457133</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,10 +26375,10 @@
         <v>639703.3804282957</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.24657981107157e-09</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-6.314743317246519e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>257274.6877527452</v>
+        <v>257274.6877527453</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>169415.1097377022</v>
+        <v>169415.1097376957</v>
       </c>
       <c r="N3" t="n">
-        <v>43.93756435655973</v>
+        <v>43.93756436312515</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>26074.75651488301</v>
+        <v>26074.75651488305</v>
       </c>
       <c r="F4" t="n">
+        <v>26074.75651488286</v>
+      </c>
+      <c r="G4" t="n">
+        <v>26074.75651488307</v>
+      </c>
+      <c r="H4" t="n">
         <v>26074.75651488305</v>
-      </c>
-      <c r="G4" t="n">
-        <v>26074.75651488306</v>
-      </c>
-      <c r="H4" t="n">
-        <v>26074.75651488304</v>
       </c>
       <c r="I4" t="n">
         <v>26074.75651488305</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>33587.58123700273</v>
+        <v>33587.58123700002</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.653297409</v>
+        <v>33605.65329740896</v>
       </c>
       <c r="P4" t="n">
         <v>33605.65329740899</v>
@@ -26479,10 +26479,10 @@
         <v>94477.49060940044</v>
       </c>
       <c r="F5" t="n">
+        <v>94477.49060940051</v>
+      </c>
+      <c r="G5" t="n">
         <v>94477.49060940044</v>
-      </c>
-      <c r="G5" t="n">
-        <v>94477.49060940043</v>
       </c>
       <c r="H5" t="n">
         <v>94477.49060940044</v>
@@ -26491,16 +26491,16 @@
         <v>94477.49060940044</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>100328.0537802297</v>
+        <v>100328.0537802291</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-527758.9361893687</v>
+        <v>-527758.9361893685</v>
       </c>
       <c r="C6" t="n">
-        <v>62208.9430251758</v>
+        <v>62208.94302517574</v>
       </c>
       <c r="D6" t="n">
-        <v>62208.94302517586</v>
+        <v>62208.94302517595</v>
       </c>
       <c r="E6" t="n">
-        <v>-444689.590329702</v>
+        <v>-444769.9070217198</v>
       </c>
       <c r="F6" t="n">
-        <v>195013.7900985936</v>
+        <v>194933.4734065739</v>
       </c>
       <c r="G6" t="n">
-        <v>195013.7900985938</v>
+        <v>194933.4734065781</v>
       </c>
       <c r="H6" t="n">
-        <v>195013.7900985936</v>
+        <v>194933.4734065757</v>
       </c>
       <c r="I6" t="n">
-        <v>195013.7900985936</v>
+        <v>194933.4734065758</v>
       </c>
       <c r="J6" t="n">
-        <v>-54141.26881606247</v>
+        <v>-54208.46430628824</v>
       </c>
       <c r="K6" t="n">
-        <v>203133.4189366828</v>
+        <v>203066.2234464571</v>
       </c>
       <c r="L6" t="n">
-        <v>203133.4189366829</v>
+        <v>203066.2234464571</v>
       </c>
       <c r="M6" t="n">
-        <v>25073.39311056705</v>
+        <v>25073.31454757357</v>
       </c>
       <c r="N6" t="n">
-        <v>194434.446069846</v>
+        <v>194434.4460698393</v>
       </c>
       <c r="O6" t="n">
+        <v>194478.3836342025</v>
+      </c>
+      <c r="P6" t="n">
         <v>194478.3836342024</v>
-      </c>
-      <c r="P6" t="n">
-        <v>194478.383634202</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.92021466314686</v>
+        <v>46.92021466313863</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="3">
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>977.3128539252466</v>
       </c>
       <c r="F3" t="n">
-        <v>977.3128539252466</v>
+        <v>977.3128539252494</v>
       </c>
       <c r="G3" t="n">
-        <v>977.3128539252464</v>
+        <v>977.3128539252465</v>
       </c>
       <c r="H3" t="n">
         <v>977.3128539252466</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.92021466314686</v>
+        <v>46.92021466313863</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05492195544569967</v>
+        <v>0.05492195545390643</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,10 +26969,10 @@
         <v>599.5691897081599</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-12</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>-2.955857780762017e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>112.4638466680515</v>
+        <v>112.4638466680517</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>529.2007271439651</v>
+        <v>529.2007271439653</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>665.3122034609651</v>
+        <v>665.3122034609648</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.2007271439652</v>
+        <v>529.2007271439653</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.2007271439651</v>
+        <v>529.2007271439653</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>178.1459598735958</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>323.7220634917289</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>63.3731647155137</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>28.31325977179802</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>132.1503566669489</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>329.910940435855</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>91.05728868989632</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>125.3743547112085</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>229.3636862848538</v>
       </c>
       <c r="H8" t="n">
-        <v>162.1714682429266</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>62.45432460233755</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>49.80904827649567</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.92021466314686</v>
+        <v>46.92021466313863</v>
       </c>
       <c r="C37" t="n">
-        <v>46.92021466314686</v>
+        <v>46.92021466313863</v>
       </c>
       <c r="D37" t="n">
-        <v>46.92021466314686</v>
+        <v>46.92021466313863</v>
       </c>
       <c r="E37" t="n">
-        <v>46.92021466314686</v>
+        <v>46.92021466313863</v>
       </c>
       <c r="F37" t="n">
-        <v>46.92021466314686</v>
+        <v>46.92021466313863</v>
       </c>
       <c r="G37" t="n">
-        <v>46.92021466314686</v>
+        <v>46.92021466313863</v>
       </c>
       <c r="H37" t="n">
-        <v>46.92021466314686</v>
+        <v>46.92021466313863</v>
       </c>
       <c r="I37" t="n">
-        <v>46.92021466314686</v>
+        <v>46.92021466313863</v>
       </c>
       <c r="J37" t="n">
-        <v>46.92021466314686</v>
+        <v>46.92021466313863</v>
       </c>
       <c r="K37" t="n">
-        <v>46.92021466314686</v>
+        <v>46.92021466313863</v>
       </c>
       <c r="L37" t="n">
-        <v>46.92021466314686</v>
+        <v>46.92021466313863</v>
       </c>
       <c r="M37" t="n">
-        <v>46.92021466314686</v>
+        <v>46.92021466313863</v>
       </c>
       <c r="N37" t="n">
-        <v>46.92021466314686</v>
+        <v>46.92021466313863</v>
       </c>
       <c r="O37" t="n">
-        <v>46.92021466314686</v>
+        <v>46.92021466313863</v>
       </c>
       <c r="P37" t="n">
-        <v>46.92021466314686</v>
+        <v>46.92021466313863</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.92021466314686</v>
+        <v>46.92021466313863</v>
       </c>
       <c r="R37" t="n">
-        <v>46.92021466314686</v>
+        <v>46.92021466313863</v>
       </c>
       <c r="S37" t="n">
-        <v>46.92021466314686</v>
+        <v>46.92021466313863</v>
       </c>
       <c r="T37" t="n">
-        <v>46.92021466314686</v>
+        <v>46.92021466313863</v>
       </c>
       <c r="U37" t="n">
-        <v>46.92021466314686</v>
+        <v>46.92021466313863</v>
       </c>
       <c r="V37" t="n">
-        <v>46.92021466314686</v>
+        <v>46.92021466313863</v>
       </c>
       <c r="W37" t="n">
-        <v>46.92021466314686</v>
+        <v>46.92021466313863</v>
       </c>
       <c r="X37" t="n">
-        <v>46.92021466314686</v>
+        <v>46.92021466313863</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.92021466314686</v>
+        <v>46.92021466313863</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.928895895176868</v>
+        <v>3.928895895176879</v>
       </c>
       <c r="H14" t="n">
-        <v>40.23680508648011</v>
+        <v>40.23680508648022</v>
       </c>
       <c r="I14" t="n">
-        <v>151.4687589988064</v>
+        <v>151.4687589988068</v>
       </c>
       <c r="J14" t="n">
-        <v>333.460127983268</v>
+        <v>333.4601279832689</v>
       </c>
       <c r="K14" t="n">
-        <v>499.7702912261049</v>
+        <v>499.7702912261063</v>
       </c>
       <c r="L14" t="n">
-        <v>620.0092389781241</v>
+        <v>620.0092389781259</v>
       </c>
       <c r="M14" t="n">
-        <v>689.8797413539756</v>
+        <v>689.8797413539777</v>
       </c>
       <c r="N14" t="n">
-        <v>701.042716816147</v>
+        <v>701.0427168161491</v>
       </c>
       <c r="O14" t="n">
-        <v>661.974758258482</v>
+        <v>661.9747582584839</v>
       </c>
       <c r="P14" t="n">
-        <v>564.980140846303</v>
+        <v>564.9801408463046</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2765566002813</v>
+        <v>424.2765566002825</v>
       </c>
       <c r="R14" t="n">
-        <v>246.7985067754041</v>
+        <v>246.7985067754049</v>
       </c>
       <c r="S14" t="n">
-        <v>89.52971521134296</v>
+        <v>89.52971521134323</v>
       </c>
       <c r="T14" t="n">
-        <v>17.19874178113675</v>
+        <v>17.1987417811368</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3143116716141494</v>
+        <v>0.3143116716141503</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.1021446291977</v>
+        <v>2.102144629197706</v>
       </c>
       <c r="H15" t="n">
-        <v>20.30229155040937</v>
+        <v>20.30229155040943</v>
       </c>
       <c r="I15" t="n">
-        <v>72.37647078597347</v>
+        <v>72.37647078597367</v>
       </c>
       <c r="J15" t="n">
-        <v>198.6065677962617</v>
+        <v>198.6065677962623</v>
       </c>
       <c r="K15" t="n">
-        <v>339.4502579525076</v>
+        <v>339.4502579525086</v>
       </c>
       <c r="L15" t="n">
-        <v>456.4327625808428</v>
+        <v>456.4327625808442</v>
       </c>
       <c r="M15" t="n">
-        <v>532.6355053892594</v>
+        <v>532.6355053892609</v>
       </c>
       <c r="N15" t="n">
-        <v>546.7327823105019</v>
+        <v>546.7327823105035</v>
       </c>
       <c r="O15" t="n">
-        <v>500.1536828951212</v>
+        <v>500.1536828951227</v>
       </c>
       <c r="P15" t="n">
-        <v>401.4174248509188</v>
+        <v>401.4174248509199</v>
       </c>
       <c r="Q15" t="n">
-        <v>268.3369179305696</v>
+        <v>268.3369179305704</v>
       </c>
       <c r="R15" t="n">
-        <v>130.5173656619415</v>
+        <v>130.5173656619419</v>
       </c>
       <c r="S15" t="n">
-        <v>39.04641449408884</v>
+        <v>39.04641449408895</v>
       </c>
       <c r="T15" t="n">
-        <v>8.4731180448802</v>
+        <v>8.473118044880225</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1382989887630066</v>
+        <v>0.1382989887630071</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.762367441504543</v>
+        <v>1.762367441504548</v>
       </c>
       <c r="H16" t="n">
-        <v>15.66904870719495</v>
+        <v>15.66904870719499</v>
       </c>
       <c r="I16" t="n">
-        <v>52.99919542270027</v>
+        <v>52.99919542270042</v>
       </c>
       <c r="J16" t="n">
-        <v>124.5993781143712</v>
+        <v>124.5993781143715</v>
       </c>
       <c r="K16" t="n">
-        <v>204.7550536584369</v>
+        <v>204.7550536584374</v>
       </c>
       <c r="L16" t="n">
-        <v>262.0159739851391</v>
+        <v>262.0159739851399</v>
       </c>
       <c r="M16" t="n">
-        <v>276.2591072169348</v>
+        <v>276.2591072169356</v>
       </c>
       <c r="N16" t="n">
-        <v>269.6902831167818</v>
+        <v>269.6902831167825</v>
       </c>
       <c r="O16" t="n">
-        <v>249.1026270955695</v>
+        <v>249.1026270955702</v>
       </c>
       <c r="P16" t="n">
-        <v>213.1503312888766</v>
+        <v>213.1503312888773</v>
       </c>
       <c r="Q16" t="n">
-        <v>147.5742409427122</v>
+        <v>147.5742409427127</v>
       </c>
       <c r="R16" t="n">
-        <v>79.24244877892242</v>
+        <v>79.24244877892265</v>
       </c>
       <c r="S16" t="n">
-        <v>30.71325804876552</v>
+        <v>30.71325804876561</v>
       </c>
       <c r="T16" t="n">
-        <v>7.530115431883045</v>
+        <v>7.530115431883067</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09612913317297518</v>
+        <v>0.09612913317297546</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32233,19 +32233,19 @@
         <v>151.4687589988063</v>
       </c>
       <c r="J17" t="n">
-        <v>333.4601279832679</v>
+        <v>333.460127983268</v>
       </c>
       <c r="K17" t="n">
-        <v>499.7702912261048</v>
+        <v>499.7702912261049</v>
       </c>
       <c r="L17" t="n">
-        <v>620.0092389781239</v>
+        <v>620.009238978124</v>
       </c>
       <c r="M17" t="n">
-        <v>689.8797413539755</v>
+        <v>689.8797413539756</v>
       </c>
       <c r="N17" t="n">
-        <v>701.0427168161468</v>
+        <v>701.0427168161469</v>
       </c>
       <c r="O17" t="n">
         <v>661.9747582584819</v>
@@ -32254,16 +32254,16 @@
         <v>564.9801408463029</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2765566002812</v>
+        <v>424.2765566002813</v>
       </c>
       <c r="R17" t="n">
         <v>246.7985067754041</v>
       </c>
       <c r="S17" t="n">
-        <v>89.52971521134295</v>
+        <v>89.52971521134296</v>
       </c>
       <c r="T17" t="n">
-        <v>17.19874178113674</v>
+        <v>17.19874178113675</v>
       </c>
       <c r="U17" t="n">
         <v>0.3143116716141493</v>
@@ -32309,31 +32309,31 @@
         <v>20.30229155040937</v>
       </c>
       <c r="I18" t="n">
-        <v>72.37647078597344</v>
+        <v>72.37647078597345</v>
       </c>
       <c r="J18" t="n">
         <v>198.6065677962617</v>
       </c>
       <c r="K18" t="n">
-        <v>339.4502579525075</v>
+        <v>339.4502579525076</v>
       </c>
       <c r="L18" t="n">
-        <v>456.4327625808427</v>
+        <v>456.4327625808428</v>
       </c>
       <c r="M18" t="n">
-        <v>532.6355053892592</v>
+        <v>532.6355053892593</v>
       </c>
       <c r="N18" t="n">
-        <v>546.7327823105018</v>
+        <v>546.7327823105019</v>
       </c>
       <c r="O18" t="n">
-        <v>500.1536828951211</v>
+        <v>500.1536828951212</v>
       </c>
       <c r="P18" t="n">
         <v>401.4174248509187</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.3369179305695</v>
+        <v>268.3369179305696</v>
       </c>
       <c r="R18" t="n">
         <v>130.5173656619415</v>
@@ -32342,7 +32342,7 @@
         <v>39.04641449408883</v>
       </c>
       <c r="T18" t="n">
-        <v>8.473118044880199</v>
+        <v>8.4731180448802</v>
       </c>
       <c r="U18" t="n">
         <v>0.1382989887630066</v>
@@ -32382,31 +32382,31 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.762367441504542</v>
+        <v>1.762367441504543</v>
       </c>
       <c r="H19" t="n">
         <v>15.66904870719494</v>
       </c>
       <c r="I19" t="n">
-        <v>52.99919542270025</v>
+        <v>52.99919542270026</v>
       </c>
       <c r="J19" t="n">
-        <v>124.5993781143711</v>
+        <v>124.5993781143712</v>
       </c>
       <c r="K19" t="n">
         <v>204.7550536584368</v>
       </c>
       <c r="L19" t="n">
-        <v>262.015973985139</v>
+        <v>262.0159739851391</v>
       </c>
       <c r="M19" t="n">
         <v>276.2591072169348</v>
       </c>
       <c r="N19" t="n">
-        <v>269.6902831167816</v>
+        <v>269.6902831167817</v>
       </c>
       <c r="O19" t="n">
-        <v>249.1026270955694</v>
+        <v>249.1026270955695</v>
       </c>
       <c r="P19" t="n">
         <v>213.1503312888766</v>
@@ -32415,16 +32415,16 @@
         <v>147.5742409427122</v>
       </c>
       <c r="R19" t="n">
-        <v>79.24244877892241</v>
+        <v>79.24244877892242</v>
       </c>
       <c r="S19" t="n">
-        <v>30.71325804876551</v>
+        <v>30.71325804876552</v>
       </c>
       <c r="T19" t="n">
-        <v>7.530115431883043</v>
+        <v>7.530115431883044</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09612913317297515</v>
+        <v>0.09612913317297517</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343415</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35416,7 +35416,7 @@
         <v>801.9040385585873</v>
       </c>
       <c r="M11" t="n">
-        <v>909.0470416195354</v>
+        <v>539.5329191114333</v>
       </c>
       <c r="N11" t="n">
         <v>908.9765776315403</v>
@@ -35425,13 +35425,13 @@
         <v>812.6767280995406</v>
       </c>
       <c r="P11" t="n">
-        <v>432.6303015413358</v>
+        <v>655.5458532625162</v>
       </c>
       <c r="Q11" t="n">
-        <v>201.9708667258318</v>
+        <v>414.2858573857364</v>
       </c>
       <c r="R11" t="n">
-        <v>96.92938883425447</v>
+        <v>31.21296896127203</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>197.8599764700039</v>
+        <v>71.76894112959502</v>
       </c>
       <c r="K12" t="n">
-        <v>244.9621578787365</v>
+        <v>201.6088189781486</v>
       </c>
       <c r="L12" t="n">
         <v>317.8783828009686</v>
@@ -35504,10 +35504,10 @@
         <v>357.5574384506768</v>
       </c>
       <c r="P12" t="n">
-        <v>267.4430174365885</v>
+        <v>585.9057860765257</v>
       </c>
       <c r="Q12" t="n">
-        <v>338.4324315803972</v>
+        <v>189.4140371814565</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>313.8224554960103</v>
       </c>
       <c r="O13" t="n">
-        <v>273.6877550096092</v>
+        <v>273.6877550096094</v>
       </c>
       <c r="P13" t="n">
         <v>210.4288905537701</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>152.4142234565817</v>
+        <v>321.5108386286564</v>
       </c>
       <c r="K14" t="n">
-        <v>291.5779235050002</v>
+        <v>293.9634312928593</v>
       </c>
       <c r="L14" t="n">
-        <v>801.9040385585873</v>
+        <v>801.9040385585891</v>
       </c>
       <c r="M14" t="n">
-        <v>909.0470416195354</v>
+        <v>459.533508126705</v>
       </c>
       <c r="N14" t="n">
-        <v>908.9765776315403</v>
+        <v>908.9765776315423</v>
       </c>
       <c r="O14" t="n">
-        <v>812.6767280995406</v>
+        <v>812.6767280995425</v>
       </c>
       <c r="P14" t="n">
-        <v>655.5458532625162</v>
+        <v>655.5458532625178</v>
       </c>
       <c r="Q14" t="n">
-        <v>201.9708667258318</v>
+        <v>414.2858573857377</v>
       </c>
       <c r="R14" t="n">
-        <v>31.21296896127203</v>
+        <v>96.92938883425518</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>71.76894112959502</v>
+        <v>71.76894112959559</v>
       </c>
       <c r="K15" t="n">
-        <v>201.6088189781486</v>
+        <v>466.0740559907282</v>
       </c>
       <c r="L15" t="n">
-        <v>317.8783828009686</v>
+        <v>317.87838280097</v>
       </c>
       <c r="M15" t="n">
-        <v>390.5014714672411</v>
+        <v>390.5014714672425</v>
       </c>
       <c r="N15" t="n">
-        <v>415.3910702271686</v>
+        <v>500.0879636821294</v>
       </c>
       <c r="O15" t="n">
-        <v>737.0791004275223</v>
+        <v>357.5574384506783</v>
       </c>
       <c r="P15" t="n">
-        <v>267.4430174365885</v>
+        <v>267.4430174365897</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.3551438445481</v>
+        <v>128.3551438445489</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>30.35953150929872</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>31.2401979976984</v>
+        <v>31.24019799769876</v>
       </c>
       <c r="K16" t="n">
-        <v>182.485561832554</v>
+        <v>182.4855618325546</v>
       </c>
       <c r="L16" t="n">
-        <v>289.6059992454552</v>
+        <v>289.605999245456</v>
       </c>
       <c r="M16" t="n">
-        <v>315.8429841787754</v>
+        <v>315.8429841787762</v>
       </c>
       <c r="N16" t="n">
-        <v>313.8224554960103</v>
+        <v>313.8224554960111</v>
       </c>
       <c r="O16" t="n">
-        <v>273.6877550096092</v>
+        <v>273.6877550096098</v>
       </c>
       <c r="P16" t="n">
-        <v>210.4288905537701</v>
+        <v>210.4288905537707</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.41219769101785</v>
+        <v>61.41219769101828</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,19 +35884,19 @@
         <v>321.5108386286554</v>
       </c>
       <c r="K17" t="n">
-        <v>603.8258527522889</v>
+        <v>603.8258527522891</v>
       </c>
       <c r="L17" t="n">
-        <v>801.9040385585871</v>
+        <v>384.2428240081368</v>
       </c>
       <c r="M17" t="n">
-        <v>587.0180110792708</v>
+        <v>909.0470416195354</v>
       </c>
       <c r="N17" t="n">
-        <v>471.6296532195559</v>
+        <v>908.9765776315402</v>
       </c>
       <c r="O17" t="n">
-        <v>812.6767280995405</v>
+        <v>470.9619876977428</v>
       </c>
       <c r="P17" t="n">
         <v>655.5458532625159</v>
@@ -35905,7 +35905,7 @@
         <v>414.2858573857364</v>
       </c>
       <c r="R17" t="n">
-        <v>96.92938883425441</v>
+        <v>96.92938883425444</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>197.8599764700038</v>
+        <v>71.76894112959499</v>
       </c>
       <c r="K18" t="n">
-        <v>201.6088189781485</v>
+        <v>201.6088189781486</v>
       </c>
       <c r="L18" t="n">
         <v>317.8783828009686</v>
       </c>
       <c r="M18" t="n">
-        <v>390.5014714672408</v>
+        <v>390.5014714672409</v>
       </c>
       <c r="N18" t="n">
-        <v>415.3910702271685</v>
+        <v>415.3910702271686</v>
       </c>
       <c r="O18" t="n">
-        <v>357.5574384506767</v>
+        <v>737.0791004275235</v>
       </c>
       <c r="P18" t="n">
-        <v>310.7963563371778</v>
+        <v>267.4430174365885</v>
       </c>
       <c r="Q18" t="n">
-        <v>338.4324315803971</v>
+        <v>128.3551438445481</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.24019799769837</v>
+        <v>31.24019799769839</v>
       </c>
       <c r="K19" t="n">
-        <v>182.4855618325539</v>
+        <v>182.485561832554</v>
       </c>
       <c r="L19" t="n">
-        <v>289.6059992454551</v>
+        <v>289.6059992454552</v>
       </c>
       <c r="M19" t="n">
         <v>315.8429841787753</v>
       </c>
       <c r="N19" t="n">
-        <v>313.8224554960102</v>
+        <v>313.8224554960103</v>
       </c>
       <c r="O19" t="n">
         <v>273.6877550096091</v>
@@ -36130,7 +36130,7 @@
         <v>459.5335081267029</v>
       </c>
       <c r="N20" t="n">
-        <v>599.1141561721229</v>
+        <v>664.8305760451059</v>
       </c>
       <c r="O20" t="n">
         <v>812.6767280995406</v>
@@ -36142,7 +36142,7 @@
         <v>414.2858573857364</v>
       </c>
       <c r="R20" t="n">
-        <v>96.92938883425447</v>
+        <v>31.21296896127203</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>197.8599764700039</v>
+        <v>71.76894112959502</v>
       </c>
       <c r="K21" t="n">
-        <v>244.9621578787365</v>
+        <v>466.0740559907272</v>
       </c>
       <c r="L21" t="n">
         <v>317.8783828009686</v>
@@ -36212,13 +36212,13 @@
         <v>415.3910702271686</v>
       </c>
       <c r="O21" t="n">
-        <v>357.5574384506768</v>
+        <v>472.6138634149438</v>
       </c>
       <c r="P21" t="n">
         <v>267.4430174365885</v>
       </c>
       <c r="Q21" t="n">
-        <v>338.4324315803972</v>
+        <v>128.3551438445481</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,13 +36361,13 @@
         <v>603.8258527522892</v>
       </c>
       <c r="L23" t="n">
-        <v>801.9040385585873</v>
+        <v>384.2428240081369</v>
       </c>
       <c r="M23" t="n">
-        <v>587.0180110792708</v>
+        <v>909.0470416195354</v>
       </c>
       <c r="N23" t="n">
-        <v>471.6296532195561</v>
+        <v>632.9782571027243</v>
       </c>
       <c r="O23" t="n">
         <v>812.6767280995406</v>
@@ -36379,7 +36379,7 @@
         <v>414.2858573857364</v>
       </c>
       <c r="R23" t="n">
-        <v>96.92938883425447</v>
+        <v>31.21296896127203</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>197.8599764700039</v>
+        <v>71.76894112959502</v>
       </c>
       <c r="K24" t="n">
-        <v>244.9621578787365</v>
+        <v>201.6088189781486</v>
       </c>
       <c r="L24" t="n">
         <v>317.8783828009686</v>
@@ -36446,7 +36446,7 @@
         <v>390.5014714672411</v>
       </c>
       <c r="N24" t="n">
-        <v>415.3910702271686</v>
+        <v>764.5532006947155</v>
       </c>
       <c r="O24" t="n">
         <v>357.5574384506768</v>
@@ -36455,10 +36455,10 @@
         <v>267.4430174365885</v>
       </c>
       <c r="Q24" t="n">
-        <v>338.4324315803972</v>
+        <v>128.3551438445481</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>30.35953150929835</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>470.4443441954267</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>625.5308458386829</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>230.2702165464391</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
@@ -37078,10 +37078,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>584.5052752959929</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37227,7 +37227,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359043</v>
+        <v>703.3044639766117</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.49863127621305</v>
+        <v>92.49863127620486</v>
       </c>
       <c r="K37" t="n">
-        <v>252.9678742074664</v>
+        <v>252.9678742074582</v>
       </c>
       <c r="L37" t="n">
-        <v>366.6775868333449</v>
+        <v>366.6775868333367</v>
       </c>
       <c r="M37" t="n">
-        <v>394.5535940566306</v>
+        <v>394.5535940566224</v>
       </c>
       <c r="N37" t="n">
-        <v>391.7771608306869</v>
+        <v>391.7771608306787</v>
       </c>
       <c r="O37" t="n">
-        <v>349.2733448857866</v>
+        <v>349.2733448857784</v>
       </c>
       <c r="P37" t="n">
-        <v>281.8772858082572</v>
+        <v>281.877285808249</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3144532010405</v>
+        <v>125.3144532010323</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>635.0202028044818</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>584.5052752959929</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,10 +37704,10 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
@@ -37716,7 +37716,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37780,25 +37780,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>711.4207145458281</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38017,25 +38017,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>522.0412397236896</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
